--- a/BaseStation-1.2.1/PinAssignment.xlsx
+++ b/BaseStation-1.2.1/PinAssignment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danielg\Dropbox\maqueta\Arduino\Proyectos\DCCCommandStation\BaseStation-1.2.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\danielg\Dropbox\GitHub\LNetDCCpp\BaseStation-1.2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,25 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
-  <si>
-    <t>serial RX</t>
-  </si>
-  <si>
-    <t>serial TX</t>
-  </si>
-  <si>
-    <t>serial TX, int 5</t>
-  </si>
-  <si>
-    <t>serial RX, int 4</t>
-  </si>
-  <si>
-    <t>int 0, pwm</t>
-  </si>
-  <si>
-    <t>int 1, pwm</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="121">
   <si>
     <t>pwm</t>
   </si>
@@ -116,9 +98,6 @@
     <t>A15</t>
   </si>
   <si>
-    <t>ARDUINO MEGA PINS</t>
-  </si>
-  <si>
     <t>SERIAL</t>
   </si>
   <si>
@@ -128,19 +107,286 @@
     <t>LOCONET SHIELD</t>
   </si>
   <si>
-    <t>ETHERNET SHIELD</t>
-  </si>
-  <si>
-    <t>Green Led Power on</t>
-  </si>
-  <si>
-    <t>Red Led Power off</t>
-  </si>
-  <si>
     <t>Power on push button</t>
   </si>
   <si>
     <t>Power off push button</t>
+  </si>
+  <si>
+    <t>Emergency led</t>
+  </si>
+  <si>
+    <t>Power off led</t>
+  </si>
+  <si>
+    <t>Power on led</t>
+  </si>
+  <si>
+    <t>Emergency switch</t>
+  </si>
+  <si>
+    <t>PWON_BUTTON_PIN</t>
+  </si>
+  <si>
+    <t>PWOFF_BUTTON_PIN</t>
+  </si>
+  <si>
+    <t>EMERGENCY_STOP_PIN</t>
+  </si>
+  <si>
+    <t>PWON_LED_PIN</t>
+  </si>
+  <si>
+    <t>PWOFF_LED_PIN</t>
+  </si>
+  <si>
+    <t>EMERGENCY_LED_PIN</t>
+  </si>
+  <si>
+    <t>Relay for programming track1</t>
+  </si>
+  <si>
+    <t>Relay for programming track2</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>D26</t>
+  </si>
+  <si>
+    <t>D27</t>
+  </si>
+  <si>
+    <t>D28</t>
+  </si>
+  <si>
+    <t>D29</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D31</t>
+  </si>
+  <si>
+    <t>D32</t>
+  </si>
+  <si>
+    <t>D33</t>
+  </si>
+  <si>
+    <t>D34</t>
+  </si>
+  <si>
+    <t>D35</t>
+  </si>
+  <si>
+    <t>D36</t>
+  </si>
+  <si>
+    <t>D37</t>
+  </si>
+  <si>
+    <t>D38</t>
+  </si>
+  <si>
+    <t>D39</t>
+  </si>
+  <si>
+    <t>D40</t>
+  </si>
+  <si>
+    <t>D41</t>
+  </si>
+  <si>
+    <t>D42</t>
+  </si>
+  <si>
+    <t>D43</t>
+  </si>
+  <si>
+    <t>D44</t>
+  </si>
+  <si>
+    <t>D45</t>
+  </si>
+  <si>
+    <t>int 5, pwm</t>
+  </si>
+  <si>
+    <t>int 4, pwm</t>
+  </si>
+  <si>
+    <t>serial 0 RX</t>
+  </si>
+  <si>
+    <t>serial 0 TX</t>
+  </si>
+  <si>
+    <t>serial 2 TX</t>
+  </si>
+  <si>
+    <t>serial 2 RX</t>
+  </si>
+  <si>
+    <t>serial 1 TX, int 3</t>
+  </si>
+  <si>
+    <t>serial 1 RX, int 2</t>
+  </si>
+  <si>
+    <t>serial 3 TX, int 10</t>
+  </si>
+  <si>
+    <t>serial 3 RX, int 9</t>
+  </si>
+  <si>
+    <t>D46</t>
+  </si>
+  <si>
+    <t>D47</t>
+  </si>
+  <si>
+    <t>D48</t>
+  </si>
+  <si>
+    <t>D49</t>
+  </si>
+  <si>
+    <t>D50</t>
+  </si>
+  <si>
+    <t>D51</t>
+  </si>
+  <si>
+    <t>D52</t>
+  </si>
+  <si>
+    <t>D53</t>
+  </si>
+  <si>
+    <t>DA0</t>
+  </si>
+  <si>
+    <t>DA1</t>
+  </si>
+  <si>
+    <t>DA2</t>
+  </si>
+  <si>
+    <t>DA3</t>
+  </si>
+  <si>
+    <t>DA4</t>
+  </si>
+  <si>
+    <t>DA5</t>
+  </si>
+  <si>
+    <t>DA6</t>
+  </si>
+  <si>
+    <t>DA7</t>
+  </si>
+  <si>
+    <t>DA8</t>
+  </si>
+  <si>
+    <t>DA9</t>
+  </si>
+  <si>
+    <t>DA10</t>
+  </si>
+  <si>
+    <t>DA11</t>
+  </si>
+  <si>
+    <t>DA12</t>
+  </si>
+  <si>
+    <t>DA13</t>
+  </si>
+  <si>
+    <t>DA14</t>
+  </si>
+  <si>
+    <t>DA15</t>
   </si>
 </sst>
 </file>
@@ -156,7 +402,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +439,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -206,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -215,6 +467,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,532 +749,761 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="3"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="B16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="B17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="B18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="B19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="B20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="B21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="B22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="C32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="C33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="B58" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="B62" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="B63" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="B64" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="B65" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="B66" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="B67" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="B68" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="B69" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="B70" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>29</v>
+      <c r="B71" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
